--- a/results/javascript/freeCodeCamp/freeCodeCamp_without_min.xlsx
+++ b/results/javascript/freeCodeCamp/freeCodeCamp_without_min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Documents\CodeSize\CodeSize\results\javascript\freeCodeCamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/javascript/freeCodeCamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D44D3-ECD0-4832-841E-EE780A67639A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE288C2-B086-A74B-B908-F62005A8BAE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="freeCodeCamp_without_min" sheetId="1" r:id="rId1"/>
@@ -3357,12 +3357,12 @@
   <dimension ref="A1:O888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3432,15 +3432,15 @@
         <v>27.366403607666292</v>
       </c>
       <c r="N2" s="3">
-        <f>_xlfn.STDEV.P(C2:C888)</f>
-        <v>54.91756576103699</v>
+        <f>_xlfn.STDEV.S(C2:C888)</f>
+        <v>54.948548875355627</v>
       </c>
       <c r="O2" s="3">
         <f>N2/SQRT(COUNT(C2:C888))</f>
-        <v>1.8439513932942531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.8449917044592643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3475,15 +3475,15 @@
         <v>66.096956031567075</v>
       </c>
       <c r="N3" s="3">
-        <f>_xlfn.STDEV.P(D2:D888)</f>
-        <v>32.155654089834329</v>
+        <f>_xlfn.STDEV.S(D2:D888)</f>
+        <v>32.173795504022117</v>
       </c>
       <c r="O3" s="3">
         <f>N3/SQRT(COUNT(D2:D888))</f>
-        <v>1.0796811974376637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0802903265114734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3518,15 +3518,15 @@
         <v>4.5839909808342725</v>
       </c>
       <c r="N4" s="3">
-        <f>_xlfn.STDEV.P(E2:E888)</f>
-        <v>3.5539794092547603</v>
+        <f>_xlfn.STDEV.S(E2:E888)</f>
+        <v>3.5559844753715319</v>
       </c>
       <c r="O4" s="3">
         <f>N4/SQRT(COUNT(E2:E888))</f>
-        <v>0.11933094980848359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11939827333982429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f>_xlfn.STDEV.P(F2:F888)</f>
+        <f>_xlfn.STDEV.S(F2:F888)</f>
         <v>0</v>
       </c>
       <c r="O5" s="3">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>108</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>160</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>170</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>174</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>174</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>174</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>182</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>190</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>190</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>194</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>194</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>194</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>199</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>204</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>208</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>210</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>211</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>217</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>219</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>219</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>219</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>224</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>226</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>227</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>227</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>230</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>230</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>230</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>230</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>230</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>236</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>236</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>238</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>240</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>244</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>246</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>246</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>249</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>250</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>252</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>253</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>255</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>257</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>261</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>263</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>266</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>268</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>270</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>272</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>274</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>276</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>278</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>280</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>282</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>282</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>282</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>284</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>285</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>285</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>288</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>290</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>292</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>294</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>296</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>296</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>296</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>299</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>301</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>303</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>303</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>303</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>303</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>303</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>303</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>311</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>313</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>314</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>316</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>316</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>316</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>316</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>316</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>316</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>316</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>316</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>316</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>316</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>316</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>316</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>316</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>316</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>316</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>316</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>316</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>335</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>335</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>335</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>335</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>342</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>342</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>342</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>342</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>344</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>346</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>346</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>346</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>350</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>352</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>354</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>354</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>357</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>359</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>359</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>362</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>364</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>364</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>367</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>367</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>367</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>371</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>371</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>371</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>374</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>374</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>374</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>378</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>378</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>381</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>381</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>381</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>381</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>381</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>381</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>381</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>389</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>389</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>389</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>393</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>395</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>395</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>396</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>396</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>397</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>398</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>398</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>398</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>398</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>398</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>398</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>405</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>405</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>405</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>409</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>411</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>413</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>413</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>416</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>416</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>419</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>419</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>421</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>423</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>424</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>424</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>426</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>426</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>428</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>430</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>431</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>431</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>431</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>434</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>436</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>436</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>438</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>438</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>441</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>441</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>443</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>443</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>446</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>446</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>449</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>449</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>452</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>454</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>456</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>456</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>456</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>456</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>456</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>456</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>456</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>456</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>456</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>456</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>456</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>456</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>469</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>469</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>469</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>473</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>475</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>477</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>478</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>480</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>480</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>480</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>480</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>480</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>480</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>480</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>480</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>480</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>480</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>480</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>480</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>493</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>493</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>493</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>493</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>493</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>493</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>500</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>502</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>502</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>502</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>504</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>504</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>504</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>504</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>504</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>507</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>507</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>507</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>507</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>511</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>511</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>514</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>514</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>517</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>517</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>517</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>517</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>517</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>517</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>517</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>517</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>517</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>517</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>517</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>517</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>529</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>531</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>531</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>531</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>531</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>531</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>537</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>539</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>539</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>542</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>542</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>542</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>542</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>542</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>542</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>542</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>548</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>548</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>548</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>548</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>548</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>548</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>554</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>554</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>554</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>554</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>554</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>560</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>562</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>562</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>565</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>567</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>567</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>567</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>567</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>572</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>572</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>572</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>572</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>574</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>574</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>575</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>577</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>577</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>577</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>579</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>579</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>579</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>579</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>581</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>581</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>581</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>581</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>581</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>581</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>581</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>589</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>589</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>592</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>594</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>594</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>594</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>598</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>599</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>599</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>602</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>602</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>602</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>602</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>607</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>609</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>609</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>609</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>609</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>609</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>609</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>609</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>617</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>617</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>620</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>620</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>623</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>625</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>627</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>629</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>629</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>629</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>629</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>629</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>629</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>629</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>629</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>629</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>629</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>629</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>629</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>629</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>629</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>629</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>629</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>629</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>630</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>632</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>632</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>632</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>632</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>632</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>637</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>637</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>637</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>637</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>637</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>637</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>637</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>637</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>637</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>637</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>637</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>637</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>637</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>637</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>637</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>637</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>637</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>637</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>637</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>639</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>641</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>641</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>641</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>641</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>646</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>646</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>646</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>646</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>646</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>646</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>646</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>646</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>646</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>646</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>646</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>646</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>646</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>646</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>646</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>646</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>646</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>646</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>646</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>646</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>646</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>646</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>646</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>646</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>646</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>646</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>646</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>646</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>646</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>646</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>646</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>646</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>646</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>646</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>646</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>646</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>646</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>646</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>646</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>646</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>646</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>646</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>646</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>660</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>660</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>660</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>660</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>660</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>660</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>660</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>660</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>667</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>667</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>667</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>667</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>667</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>667</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>667</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>667</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>667</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>667</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>667</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>667</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>667</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>667</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>667</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>667</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>667</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>667</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>667</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>667</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>667</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>667</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>667</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>667</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>667</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>667</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>667</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>667</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>667</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>667</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>667</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>667</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>667</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>667</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>667</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>667</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>667</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>667</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>667</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>667</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>667</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>667</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>667</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>667</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>667</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>667</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>667</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>667</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>667</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>667</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>667</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>667</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>667</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>667</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>667</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>667</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>667</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>667</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>667</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>667</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>667</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>667</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>667</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>667</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>667</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>667</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>667</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>667</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>667</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>667</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>667</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>667</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>667</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>667</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>667</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>667</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>667</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>667</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>667</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>667</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>667</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>667</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>667</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>667</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>667</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>667</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>667</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>667</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>667</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>667</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>667</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>667</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>667</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>667</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>667</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>667</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>667</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>667</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>729</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>729</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>729</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>729</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>729</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>729</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>729</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>729</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>730</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>730</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>730</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>730</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>730</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>730</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>730</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>730</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>730</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>730</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>730</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>730</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>730</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>730</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>730</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>730</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>730</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>730</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>730</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>730</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>730</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>730</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>730</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>730</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>730</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>730</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>730</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>730</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>730</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>730</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>730</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>730</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>730</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>730</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>730</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>730</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>730</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>730</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>730</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>730</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>730</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>730</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>730</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>730</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>730</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>730</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>730</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>730</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>730</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>730</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>730</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>730</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>730</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>730</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>730</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>730</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>730</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>730</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>730</v>
       </c>
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>730</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>730</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>730</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>730</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>730</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>730</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>730</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>730</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>730</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>730</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>730</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>730</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>730</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>730</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>730</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>730</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>731</v>
       </c>
@@ -19109,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>731</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>731</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>731</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>731</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>731</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>731</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>731</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>732</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>734</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>735</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>737</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>737</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>737</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>737</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>741</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>741</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>742</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>742</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>742</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>742</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>742</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>742</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>742</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>748</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>750</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>750</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>750</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>750</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>750</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>756</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>756</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>756</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>757</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>757</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>757</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>759</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>759</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>759</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>761</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>761</v>
       </c>
@@ -19909,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>761</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>762</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>762</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>765</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>765</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>765</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>765</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>765</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>768</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>769</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>769</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>769</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>769</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>774</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>774</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>774</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>774</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>774</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>774</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>774</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>774</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>774</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>774</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>774</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>774</v>
       </c>
@@ -20409,7 +20409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>774</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>785</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>785</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>788</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>789</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>789</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>792</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>792</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>792</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>792</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>792</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>792</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>792</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>799</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>799</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>801</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>801</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>801</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>801</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>801</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>801</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>801</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>806</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>808</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>809</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>809</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>809</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>809</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>809</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>809</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>809</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>809</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>809</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>809</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>809</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>809</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>809</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>809</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>809</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>809</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>813</v>
       </c>
